--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ror2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.24196416233403</v>
+        <v>0.028814</v>
       </c>
       <c r="N2">
-        <v>2.24196416233403</v>
+        <v>0.086442</v>
       </c>
       <c r="O2">
-        <v>0.7668843844596446</v>
+        <v>0.009404897244300481</v>
       </c>
       <c r="P2">
-        <v>0.7668843844596446</v>
+        <v>0.009404897244300481</v>
       </c>
       <c r="Q2">
-        <v>19.02357604280368</v>
+        <v>0.2638486262306667</v>
       </c>
       <c r="R2">
-        <v>19.02357604280368</v>
+        <v>2.374637636076</v>
       </c>
       <c r="S2">
-        <v>0.7421766502513651</v>
+        <v>0.009117760688190321</v>
       </c>
       <c r="T2">
-        <v>0.7421766502513651</v>
+        <v>0.00911776068819032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.681506712501612</v>
+        <v>2.294804333333333</v>
       </c>
       <c r="N3">
-        <v>0.681506712501612</v>
+        <v>6.884412999999999</v>
       </c>
       <c r="O3">
-        <v>0.2331156155403554</v>
+        <v>0.7490247432073112</v>
       </c>
       <c r="P3">
-        <v>0.2331156155403554</v>
+        <v>0.7490247432073114</v>
       </c>
       <c r="Q3">
-        <v>5.782739522231468</v>
+        <v>21.01342995829044</v>
       </c>
       <c r="R3">
-        <v>5.782739522231468</v>
+        <v>189.120869624614</v>
       </c>
       <c r="S3">
-        <v>0.2256050196991988</v>
+        <v>0.7261566161433837</v>
       </c>
       <c r="T3">
-        <v>0.2256050196991988</v>
+        <v>0.7261566161433838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.28248092494081</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>0.28248092494081</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.03221833004943613</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.03221833004943613</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.24196416233403</v>
+        <v>0.7401046666666667</v>
       </c>
       <c r="N4">
-        <v>2.24196416233403</v>
+        <v>2.220314</v>
       </c>
       <c r="O4">
-        <v>0.7668843844596446</v>
+        <v>0.2415703595483883</v>
       </c>
       <c r="P4">
-        <v>0.7668843844596446</v>
+        <v>0.2415703595483883</v>
       </c>
       <c r="Q4">
-        <v>0.6333121102602651</v>
+        <v>6.777108335076891</v>
       </c>
       <c r="R4">
-        <v>0.6333121102602651</v>
+        <v>60.99397501569201</v>
       </c>
       <c r="S4">
-        <v>0.02470773420827949</v>
+        <v>0.2341950869327249</v>
       </c>
       <c r="T4">
-        <v>0.02470773420827949</v>
+        <v>0.2341950869327249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.288371</v>
+      </c>
+      <c r="H5">
+        <v>0.865113</v>
+      </c>
+      <c r="I5">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J5">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.028814</v>
+      </c>
+      <c r="N5">
+        <v>0.086442</v>
+      </c>
+      <c r="O5">
+        <v>0.009404897244300481</v>
+      </c>
+      <c r="P5">
+        <v>0.009404897244300481</v>
+      </c>
+      <c r="Q5">
+        <v>0.008309121994000001</v>
+      </c>
+      <c r="R5">
+        <v>0.07478209794600001</v>
+      </c>
+      <c r="S5">
+        <v>0.0002871365561101611</v>
+      </c>
+      <c r="T5">
+        <v>0.0002871365561101611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.28248092494081</v>
-      </c>
-      <c r="H5">
-        <v>0.28248092494081</v>
-      </c>
-      <c r="I5">
-        <v>0.03221833004943613</v>
-      </c>
-      <c r="J5">
-        <v>0.03221833004943613</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.681506712501612</v>
-      </c>
-      <c r="N5">
-        <v>0.681506712501612</v>
-      </c>
-      <c r="O5">
-        <v>0.2331156155403554</v>
-      </c>
-      <c r="P5">
-        <v>0.2331156155403554</v>
-      </c>
-      <c r="Q5">
-        <v>0.192512646500826</v>
-      </c>
-      <c r="R5">
-        <v>0.192512646500826</v>
-      </c>
-      <c r="S5">
-        <v>0.007510595841156631</v>
-      </c>
-      <c r="T5">
-        <v>0.007510595841156631</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.288371</v>
+      </c>
+      <c r="H6">
+        <v>0.865113</v>
+      </c>
+      <c r="I6">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J6">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.294804333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.884412999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.7490247432073112</v>
+      </c>
+      <c r="P6">
+        <v>0.7490247432073114</v>
+      </c>
+      <c r="Q6">
+        <v>0.6617550204076665</v>
+      </c>
+      <c r="R6">
+        <v>5.955795183668999</v>
+      </c>
+      <c r="S6">
+        <v>0.02286812706392751</v>
+      </c>
+      <c r="T6">
+        <v>0.02286812706392752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.288371</v>
+      </c>
+      <c r="H7">
+        <v>0.865113</v>
+      </c>
+      <c r="I7">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J7">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7401046666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.220314</v>
+      </c>
+      <c r="O7">
+        <v>0.2415703595483883</v>
+      </c>
+      <c r="P7">
+        <v>0.2415703595483883</v>
+      </c>
+      <c r="Q7">
+        <v>0.2134247228313333</v>
+      </c>
+      <c r="R7">
+        <v>1.920822505482</v>
+      </c>
+      <c r="S7">
+        <v>0.007375272615663408</v>
+      </c>
+      <c r="T7">
+        <v>0.007375272615663409</v>
       </c>
     </row>
   </sheetData>
